--- a/cape/database/CAPE I.T Unit 2 data.xlsx
+++ b/cape/database/CAPE I.T Unit 2 data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -23,6 +23,54 @@
   </si>
   <si>
     <t>1iE_xQPCcBejdyPmxEbqxfYMcEaMYzHY2</t>
+  </si>
+  <si>
+    <t>CAPE® IT Past Papers (Up to 2019).pdf</t>
+  </si>
+  <si>
+    <t>1V3ME09hFetNY949hcm0tJu7jTQU8nSQf</t>
+  </si>
+  <si>
+    <t>unit_2_2014_10-Jun-2019_18-49-51.pdf</t>
+  </si>
+  <si>
+    <t>1UUeJcoL7HRF9pvlAy_9JP6IDGBdMGoXS</t>
+  </si>
+  <si>
+    <t>CAPE_IT_U1_P1_2019_1.pdf</t>
+  </si>
+  <si>
+    <t>16H4Kk67cFHY6YeT-Cv5txfk3gjfTi2Pf</t>
+  </si>
+  <si>
+    <t>CAPE_IT_Unit_2_2018_P1.pdf</t>
+  </si>
+  <si>
+    <t>1m7nnit3WXnZp_dp_lCqsig7-6wL631sO</t>
+  </si>
+  <si>
+    <t>CAPE 2012 U2 IT P1.pdf</t>
+  </si>
+  <si>
+    <t>1e9lv2HlKhwh7mWE7g7pZoQ1SreEjmTo1</t>
+  </si>
+  <si>
+    <t>CAPE 2015 and 2016 U2 IT P1.pdf</t>
+  </si>
+  <si>
+    <t>13ONOQ8tGtLfTwPzCUj5yxkO11bs_UF3_</t>
+  </si>
+  <si>
+    <t>CAPE 2017 U2 IT P1.pdf</t>
+  </si>
+  <si>
+    <t>1DfqhDxN8vNp1fcDvNbPazMB27YM4iEXD</t>
+  </si>
+  <si>
+    <t>CAPE 2010 U2 IT P1.pdf</t>
+  </si>
+  <si>
+    <t>1m2whJFNDLJVcJEfj7e6noCpbqSroNve5</t>
   </si>
 </sst>
 </file>
@@ -295,6 +343,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
